--- a/sprint/testcase_ConverLab_sprint0.40.xlsx
+++ b/sprint/testcase_ConverLab_sprint0.40.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingyun/convertlab/xsio/test/sprint/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="465" windowWidth="24240" windowHeight="13740" activeTab="3"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="24240" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="发布详情" sheetId="12" r:id="rId1"/>
@@ -12,9 +17,13 @@
     <sheet name="会员管理" sheetId="6" r:id="rId3"/>
     <sheet name="互动-消息推送" sheetId="11" r:id="rId4"/>
     <sheet name="Setting" sheetId="7" r:id="rId5"/>
+    <sheet name="互动" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -23,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="399">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7204,12 +7213,16 @@
     <t>XP-5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>切换微信公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7326,6 +7339,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -7520,6 +7534,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7538,16 +7562,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7924,11 +7938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7943,23 +7957,23 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
-    <col min="6" max="6" width="50.375" customWidth="1"/>
-    <col min="7" max="7" width="52.375" customWidth="1"/>
-    <col min="8" max="8" width="43.125" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8003,7 +8017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="82.5" customHeight="1">
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8043,11 +8057,11 @@
       <c r="M2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="39" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="14" customFormat="1" ht="82.5" customHeight="1">
+    <row r="3" spans="1:14" s="14" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8087,9 +8101,9 @@
       <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" s="14" customFormat="1" ht="78" customHeight="1">
+    <row r="4" spans="1:14" s="14" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8129,9 +8143,9 @@
       <c r="M4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="40"/>
     </row>
-    <row r="5" spans="1:14" s="14" customFormat="1" ht="78" customHeight="1">
+    <row r="5" spans="1:14" s="14" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8171,9 +8185,9 @@
       <c r="M5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="40"/>
     </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" ht="52.5" customHeight="1">
+    <row r="6" spans="1:14" s="14" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8213,9 +8227,9 @@
       <c r="M6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="40"/>
     </row>
-    <row r="7" spans="1:14" s="14" customFormat="1" ht="105" customHeight="1">
+    <row r="7" spans="1:14" s="14" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8255,9 +8269,9 @@
       <c r="M7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="37"/>
+      <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="105" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -8301,7 +8315,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="14" customFormat="1" ht="82.5" customHeight="1">
+    <row r="9" spans="1:14" s="14" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -8341,11 +8355,11 @@
       <c r="M9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="39" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="14" customFormat="1" ht="82.5" customHeight="1">
+    <row r="10" spans="1:14" s="14" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -8385,9 +8399,9 @@
       <c r="M10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="36"/>
+      <c r="N10" s="40"/>
     </row>
-    <row r="11" spans="1:14" s="14" customFormat="1" ht="78" customHeight="1">
+    <row r="11" spans="1:14" s="14" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -8427,9 +8441,9 @@
       <c r="M11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="36"/>
+      <c r="N11" s="40"/>
     </row>
-    <row r="12" spans="1:14" s="14" customFormat="1" ht="78" customHeight="1">
+    <row r="12" spans="1:14" s="14" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -8469,9 +8483,9 @@
       <c r="M12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="36"/>
+      <c r="N12" s="40"/>
     </row>
-    <row r="13" spans="1:14" s="14" customFormat="1" ht="52.5" customHeight="1">
+    <row r="13" spans="1:14" s="14" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -8511,9 +8525,9 @@
       <c r="M13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="36"/>
+      <c r="N13" s="40"/>
     </row>
-    <row r="14" spans="1:14" s="14" customFormat="1" ht="105" customHeight="1">
+    <row r="14" spans="1:14" s="14" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -8553,9 +8567,9 @@
       <c r="M14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="37"/>
+      <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="1:14" s="14" customFormat="1" ht="105" customHeight="1">
+    <row r="15" spans="1:14" s="14" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -8634,18 +8648,18 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="22" style="28" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="39.625" customWidth="1"/>
-    <col min="8" max="8" width="37.875" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8689,7 +8703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="135.75" customHeight="1">
+    <row r="2" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8729,11 +8743,11 @@
       <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="39" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="14" customFormat="1" ht="135.75" customHeight="1">
+    <row r="3" spans="1:14" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8773,9 +8787,9 @@
       <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" s="14" customFormat="1" ht="135.75" customHeight="1">
+    <row r="4" spans="1:14" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8815,9 +8829,9 @@
       <c r="M4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="40"/>
     </row>
-    <row r="5" spans="1:14" ht="125.25" customHeight="1">
+    <row r="5" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8857,9 +8871,9 @@
       <c r="M5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="40"/>
     </row>
-    <row r="6" spans="1:14" ht="116.25" customHeight="1">
+    <row r="6" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8899,9 +8913,9 @@
       <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="40"/>
     </row>
-    <row r="7" spans="1:14" ht="116.25" customHeight="1">
+    <row r="7" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8941,9 +8955,9 @@
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="36"/>
+      <c r="N7" s="40"/>
     </row>
-    <row r="8" spans="1:14" ht="99.75">
+    <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -8983,9 +8997,9 @@
       <c r="M8" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="36"/>
+      <c r="N8" s="40"/>
     </row>
-    <row r="9" spans="1:14" s="14" customFormat="1" ht="116.25" customHeight="1">
+    <row r="9" spans="1:14" s="14" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9025,9 +9039,9 @@
       <c r="M9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="36"/>
+      <c r="N9" s="40"/>
     </row>
-    <row r="10" spans="1:14" s="14" customFormat="1" ht="116.25" customHeight="1">
+    <row r="10" spans="1:14" s="14" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9067,9 +9081,9 @@
       <c r="M10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="36"/>
+      <c r="N10" s="40"/>
     </row>
-    <row r="11" spans="1:14" ht="57">
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -9109,9 +9123,9 @@
       <c r="M11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="36"/>
+      <c r="N11" s="40"/>
     </row>
-    <row r="12" spans="1:14" s="14" customFormat="1" ht="57">
+    <row r="12" spans="1:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -9151,9 +9165,9 @@
       <c r="M12" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="36"/>
+      <c r="N12" s="40"/>
     </row>
-    <row r="13" spans="1:14" s="14" customFormat="1" ht="113.1" customHeight="1">
+    <row r="13" spans="1:14" s="14" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -9193,9 +9207,9 @@
       <c r="M13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="36"/>
+      <c r="N13" s="40"/>
     </row>
-    <row r="14" spans="1:14" s="14" customFormat="1" ht="113.1" customHeight="1">
+    <row r="14" spans="1:14" s="14" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -9235,9 +9249,9 @@
       <c r="M14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="36"/>
+      <c r="N14" s="40"/>
     </row>
-    <row r="15" spans="1:14" s="14" customFormat="1" ht="57">
+    <row r="15" spans="1:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -9277,9 +9291,9 @@
       <c r="M15" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="36"/>
+      <c r="N15" s="40"/>
     </row>
-    <row r="16" spans="1:14" s="14" customFormat="1" ht="57">
+    <row r="16" spans="1:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -9319,9 +9333,9 @@
       <c r="M16" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="36"/>
+      <c r="N16" s="40"/>
     </row>
-    <row r="17" spans="1:14" s="14" customFormat="1" ht="71.25">
+    <row r="17" spans="1:14" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -9361,9 +9375,9 @@
       <c r="M17" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N17" s="36"/>
+      <c r="N17" s="40"/>
     </row>
-    <row r="18" spans="1:14" s="14" customFormat="1" ht="59.1" customHeight="1">
+    <row r="18" spans="1:14" s="14" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -9403,9 +9417,9 @@
       <c r="M18" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N18" s="36"/>
+      <c r="N18" s="40"/>
     </row>
-    <row r="19" spans="1:14" s="14" customFormat="1" ht="57">
+    <row r="19" spans="1:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -9445,9 +9459,9 @@
       <c r="M19" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="36"/>
+      <c r="N19" s="40"/>
     </row>
-    <row r="20" spans="1:14" s="14" customFormat="1" ht="57">
+    <row r="20" spans="1:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -9487,9 +9501,9 @@
       <c r="M20" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N20" s="36"/>
+      <c r="N20" s="40"/>
     </row>
-    <row r="21" spans="1:14" s="14" customFormat="1" ht="57">
+    <row r="21" spans="1:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -9529,9 +9543,9 @@
       <c r="M21" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="36"/>
+      <c r="N21" s="40"/>
     </row>
-    <row r="22" spans="1:14" s="14" customFormat="1" ht="42.75">
+    <row r="22" spans="1:14" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -9571,9 +9585,9 @@
       <c r="M22" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N22" s="36"/>
+      <c r="N22" s="40"/>
     </row>
-    <row r="23" spans="1:14" s="14" customFormat="1" ht="57">
+    <row r="23" spans="1:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -9613,9 +9627,9 @@
       <c r="M23" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N23" s="37"/>
+      <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
     </row>
   </sheetData>
@@ -9623,14 +9637,23 @@
     <mergeCell ref="N2:N23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I10 I2:I7">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I10">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K10 K2:K7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7">
+      <formula1>"功能,异常,性能,安全"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K10">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M10 M2:M7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M10">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J23">
@@ -9648,22 +9671,22 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="37.125" customWidth="1"/>
-    <col min="8" max="8" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1">
+    <row r="1" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>54</v>
       </c>
@@ -9707,7 +9730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="57">
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -9747,11 +9770,11 @@
       <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="14" customFormat="1" ht="111.95" customHeight="1">
+    <row r="3" spans="1:14" s="14" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -9791,9 +9814,9 @@
       <c r="M3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="43"/>
     </row>
-    <row r="4" spans="1:14" s="14" customFormat="1" ht="104.1" customHeight="1">
+    <row r="4" spans="1:14" s="14" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -9833,9 +9856,9 @@
       <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="40"/>
+      <c r="N4" s="44"/>
     </row>
-    <row r="5" spans="1:14" s="14" customFormat="1" ht="104.1" customHeight="1">
+    <row r="5" spans="1:14" s="14" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -9875,9 +9898,9 @@
       <c r="M5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="40"/>
+      <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" ht="104.1" customHeight="1">
+    <row r="6" spans="1:14" s="14" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -9917,9 +9940,9 @@
       <c r="M6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="40"/>
+      <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:14" s="14" customFormat="1" ht="104.1" customHeight="1">
+    <row r="7" spans="1:14" s="14" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -9959,9 +9982,9 @@
       <c r="M7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="104.1" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -10001,9 +10024,9 @@
       <c r="M8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="40"/>
+      <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:14" s="14" customFormat="1" ht="141.94999999999999" customHeight="1">
+    <row r="9" spans="1:14" s="14" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -10043,9 +10066,9 @@
       <c r="M9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="40"/>
+      <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="1:14" s="14" customFormat="1" ht="71.25">
+    <row r="10" spans="1:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -10085,9 +10108,9 @@
       <c r="M10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="40"/>
+      <c r="N10" s="44"/>
     </row>
-    <row r="11" spans="1:14" s="14" customFormat="1" ht="138" customHeight="1">
+    <row r="11" spans="1:14" s="14" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -10127,9 +10150,9 @@
       <c r="M11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="44"/>
     </row>
-    <row r="12" spans="1:14" s="14" customFormat="1" ht="77.099999999999994" customHeight="1">
+    <row r="12" spans="1:14" s="14" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -10169,9 +10192,9 @@
       <c r="M12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="40"/>
+      <c r="N12" s="44"/>
     </row>
-    <row r="13" spans="1:14" s="14" customFormat="1" ht="95.1" customHeight="1">
+    <row r="13" spans="1:14" s="14" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -10211,9 +10234,9 @@
       <c r="M13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:14" s="14" customFormat="1" ht="111.95" customHeight="1">
+    <row r="14" spans="1:14" s="14" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -10255,971 +10278,971 @@
       </c>
       <c r="N14" s="34"/>
     </row>
-    <row r="15" spans="1:14" s="44" customFormat="1" ht="84" customHeight="1">
+    <row r="15" spans="1:14" s="38" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="35">
         <v>1</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="44" customFormat="1" ht="75" customHeight="1">
+    <row r="16" spans="1:14" s="38" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="35">
         <v>1</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="M16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="44" customFormat="1" ht="75" customHeight="1">
+    <row r="17" spans="1:14" s="38" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="35">
         <v>1</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="41" t="s">
+      <c r="N17" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="18" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="35">
         <v>1</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="19" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="35">
         <v>1</v>
       </c>
-      <c r="L19" s="41" t="s">
+      <c r="L19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="41" t="s">
+      <c r="N19" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="20" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="35">
         <v>1</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="L20" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="41" t="s">
+      <c r="M20" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="41" t="s">
+      <c r="N20" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="21" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="35">
         <v>2</v>
       </c>
-      <c r="L21" s="41" t="s">
+      <c r="L21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="41" t="s">
+      <c r="M21" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="41" t="s">
+      <c r="N21" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="22" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="35">
         <v>1</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="M22" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="41" t="s">
+      <c r="N22" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="23" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="35">
         <v>2</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="41" t="s">
+      <c r="M23" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="41" t="s">
+      <c r="N23" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="24" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="35">
         <v>2</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="41" t="s">
+      <c r="M24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="41" t="s">
+      <c r="N24" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="25" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J25" s="41" t="s">
+      <c r="J25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="35">
         <v>2</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="L25" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="41" t="s">
+      <c r="M25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="41" t="s">
+      <c r="N25" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="26" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="35">
         <v>1</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="41" t="s">
+      <c r="M26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="41" t="s">
+      <c r="N26" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="27" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="35">
         <v>2</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="41" t="s">
+      <c r="M27" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="41" t="s">
+      <c r="N27" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="28" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="35">
         <v>1</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M28" s="41" t="s">
+      <c r="M28" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N28" s="41" t="s">
+      <c r="N28" s="35" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="29" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="35">
         <v>1</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="41" t="s">
+      <c r="M29" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N29" s="41" t="s">
+      <c r="N29" s="35" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="44" customFormat="1" ht="132" customHeight="1">
+    <row r="30" spans="1:14" s="38" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="35">
         <v>1</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M30" s="41" t="s">
+      <c r="M30" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N30" s="41" t="s">
+      <c r="N30" s="35" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="31" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="35">
         <v>2</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="41" t="s">
+      <c r="M31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N31" s="41" t="s">
+      <c r="N31" s="35" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="44" customFormat="1" ht="144" customHeight="1">
+    <row r="32" spans="1:14" s="38" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J32" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="35">
         <v>2</v>
       </c>
-      <c r="L32" s="41" t="s">
+      <c r="L32" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M32" s="41" t="s">
+      <c r="M32" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="41" t="s">
+      <c r="N32" s="35" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="33" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="41">
+      <c r="K33" s="35">
         <v>2</v>
       </c>
-      <c r="L33" s="41" t="s">
+      <c r="L33" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M33" s="41" t="s">
+      <c r="M33" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="41" t="s">
+      <c r="N33" s="35" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="34" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="43" t="s">
+      <c r="G34" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="I34" s="41" t="s">
+      <c r="I34" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J34" s="41" t="s">
+      <c r="J34" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="41">
+      <c r="K34" s="35">
         <v>2</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="41" t="s">
+      <c r="M34" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N34" s="41" t="s">
+      <c r="N34" s="35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="35" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="37" t="s">
         <v>391</v>
       </c>
-      <c r="I35" s="41" t="s">
+      <c r="I35" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="41">
+      <c r="K35" s="35">
         <v>2</v>
       </c>
-      <c r="L35" s="41" t="s">
+      <c r="L35" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M35" s="41" t="s">
+      <c r="M35" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N35" s="41" t="s">
+      <c r="N35" s="35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="44" customFormat="1" ht="107.25" customHeight="1">
+    <row r="36" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="I36" s="41" t="s">
+      <c r="I36" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J36" s="41" t="s">
+      <c r="J36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="35">
         <v>2</v>
       </c>
-      <c r="L36" s="41" t="s">
+      <c r="L36" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="41" t="s">
+      <c r="M36" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="41" t="s">
+      <c r="N36" s="35" t="s">
         <v>397</v>
       </c>
     </row>
@@ -11228,8 +11251,11 @@
     <mergeCell ref="N2:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I9 I11:I36">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I9">
+      <formula1>"功能,异常,性能,安全"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I36">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J36">
@@ -11253,24 +11279,24 @@
   </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="34.375" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="37.125" customWidth="1"/>
-    <col min="9" max="9" width="37.125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.25" customHeight="1">
+    <row r="1" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -11315,7 +11341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="88.5" customHeight="1">
+    <row r="2" spans="1:15" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>14</v>
       </c>
@@ -11358,7 +11384,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="76.5" customHeight="1">
+    <row r="3" spans="1:15" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -11401,7 +11427,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="88.5" customHeight="1">
+    <row r="4" spans="1:15" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -11448,7 +11474,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="111" customHeight="1">
+    <row r="5" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>17</v>
       </c>
@@ -11493,7 +11519,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="153.94999999999999" customHeight="1">
+    <row r="6" spans="1:15" ht="154" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>18</v>
       </c>
@@ -11538,7 +11564,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="125.25" customHeight="1">
+    <row r="7" spans="1:15" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>19</v>
       </c>
@@ -11583,7 +11609,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="51" customHeight="1">
+    <row r="8" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>22</v>
       </c>
@@ -11645,4 +11671,1265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="14"/>
+    <col min="2" max="2" width="17.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="32" style="14" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="35">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="35">
+        <v>1</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="35">
+        <v>1</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="35">
+        <v>1</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="35">
+        <v>1</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="35">
+        <v>2</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="35">
+        <v>2</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="35">
+        <v>2</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="35">
+        <v>2</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="35">
+        <v>1</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="35">
+        <v>2</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="38" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="35">
+        <v>1</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="38" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="35">
+        <v>1</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="38" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="35">
+        <v>1</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="35">
+        <v>2</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="35">
+        <v>2</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="35">
+        <v>2</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="35">
+        <v>2</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="35">
+        <v>2</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="35">
+        <v>2</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" s="38" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:14" s="38" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="1:14" s="38" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K23">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M23">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J23">
+      <formula1>"None,Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I23">
+      <formula1>"功能,异常,性能,安全"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>